--- a/app/non_static/excel_files/87c25e50-5d1b-4c75-91e5-ac7495a3541b.xlsx
+++ b/app/non_static/excel_files/87c25e50-5d1b-4c75-91e5-ac7495a3541b.xlsx
@@ -14,27 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ФИО</t>
   </si>
   <si>
+    <t>Группа</t>
+  </si>
+  <si>
     <t>Дистанция</t>
   </si>
   <si>
     <t>Подтверждён</t>
   </si>
   <si>
-    <t>nikkonovalov@sfedu.ru</t>
-  </si>
-  <si>
     <t>Шубенков Сергей Сергеевич</t>
   </si>
   <si>
-    <t>eduard@sfedu.ru</t>
-  </si>
-  <si>
-    <t>0.447</t>
+    <t>Эдуард</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>КТбо2-6</t>
   </si>
   <si>
     <t>0.475</t>
@@ -398,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,47 +420,59 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/non_static/excel_files/87c25e50-5d1b-4c75-91e5-ac7495a3541b.xlsx
+++ b/app/non_static/excel_files/87c25e50-5d1b-4c75-91e5-ac7495a3541b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ФИО</t>
   </si>
@@ -34,13 +34,7 @@
     <t>Эдуард</t>
   </si>
   <si>
-    <t>Николай</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>КТбо2-6</t>
   </si>
   <si>
     <t>0.475</t>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,10 +426,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -449,30 +443,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
